--- a/XUANXUAN/EXPPP2/EXPPP2/students.xlsx
+++ b/XUANXUAN/EXPPP2/EXPPP2/students.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
   <si>
     <t>姓名</t>
   </si>
@@ -49,10 +49,67 @@
     <t>DZ220051</t>
   </si>
   <si>
-    <t>计科2班</t>
+    <t>计科11班</t>
   </si>
   <si>
     <t>15200757511</t>
+  </si>
+  <si>
+    <t>最棒啦</t>
+  </si>
+  <si>
+    <t>东东</t>
+  </si>
+  <si>
+    <t>20214854</t>
+  </si>
+  <si>
+    <t>计科1班</t>
+  </si>
+  <si>
+    <t>18625712839</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>王浩东</t>
+  </si>
+  <si>
+    <t>34wreg</t>
+  </si>
+  <si>
+    <t>asgd</t>
+  </si>
+  <si>
+    <t>adsg</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>王东</t>
+  </si>
+  <si>
+    <t>王浩</t>
+  </si>
+  <si>
+    <t>王</t>
   </si>
 </sst>
 </file>
@@ -983,13 +1040,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1005,7 +1062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1017,6 +1074,336 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/XUANXUAN/EXPPP2/EXPPP2/students.xlsx
+++ b/XUANXUAN/EXPPP2/EXPPP2/students.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>姓名</t>
   </si>
@@ -37,79 +37,310 @@
     <t>学号</t>
   </si>
   <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>入学时间</t>
+  </si>
+  <si>
     <t>班级</t>
   </si>
   <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>杨萱</t>
-  </si>
-  <si>
-    <t>DZ220051</t>
-  </si>
-  <si>
-    <t>计科11班</t>
-  </si>
-  <si>
-    <t>15200757511</t>
-  </si>
-  <si>
-    <t>最棒啦</t>
-  </si>
-  <si>
-    <t>东东</t>
-  </si>
-  <si>
-    <t>20214854</t>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>高等数学</t>
+  </si>
+  <si>
+    <t>线性代数</t>
+  </si>
+  <si>
+    <t>程序设计</t>
+  </si>
+  <si>
+    <t>大学物理</t>
+  </si>
+  <si>
+    <t>数据结构</t>
+  </si>
+  <si>
+    <t>算法基础</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>2021001</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>汉族</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
   <si>
     <t>计科1班</t>
   </si>
   <si>
-    <t>18625712839</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>王浩东</t>
-  </si>
-  <si>
-    <t>34wreg</t>
-  </si>
-  <si>
-    <t>asgd</t>
-  </si>
-  <si>
-    <t>adsg</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>王东</t>
-  </si>
-  <si>
-    <t>王浩</t>
-  </si>
-  <si>
-    <t>王</t>
+    <t>15206060505</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>2021002</t>
+  </si>
+  <si>
+    <t>苗族</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>15666060506</t>
+  </si>
+  <si>
+    <t>王五</t>
+  </si>
+  <si>
+    <t>2021003</t>
+  </si>
+  <si>
+    <t>回族</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>15206550507</t>
+  </si>
+  <si>
+    <t>周六</t>
+  </si>
+  <si>
+    <t>2021004</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>计科2班</t>
+  </si>
+  <si>
+    <t>16706060508</t>
+  </si>
+  <si>
+    <t>吴七</t>
+  </si>
+  <si>
+    <t>2021005</t>
+  </si>
+  <si>
+    <t>18906060509</t>
+  </si>
+  <si>
+    <t>郑八</t>
+  </si>
+  <si>
+    <t>2021006</t>
+  </si>
+  <si>
+    <t>15255200510</t>
+  </si>
+  <si>
+    <t>孙九</t>
+  </si>
+  <si>
+    <t>2021007</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>15206090611</t>
+  </si>
+  <si>
+    <t>司徒三</t>
+  </si>
+  <si>
+    <t>2021008</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>15206060512</t>
+  </si>
+  <si>
+    <t>公孙九</t>
+  </si>
+  <si>
+    <t>2021009</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>18006060513</t>
+  </si>
+  <si>
+    <t>陈四</t>
+  </si>
+  <si>
+    <t>2021010</t>
+  </si>
+  <si>
+    <t>18006060514</t>
+  </si>
+  <si>
+    <t>阿塔木</t>
+  </si>
+  <si>
+    <t>2021011</t>
+  </si>
+  <si>
+    <t>满族</t>
+  </si>
+  <si>
+    <t>18006060515</t>
+  </si>
+  <si>
+    <t>阿鲁卡阿鲁奇</t>
+  </si>
+  <si>
+    <t>2021012</t>
+  </si>
+  <si>
+    <t>藏族</t>
+  </si>
+  <si>
+    <t>计科3班</t>
+  </si>
+  <si>
+    <t>18006060516</t>
+  </si>
+  <si>
+    <t>田八</t>
+  </si>
+  <si>
+    <t>2021013</t>
+  </si>
+  <si>
+    <t>白族</t>
+  </si>
+  <si>
+    <t>18006060517</t>
+  </si>
+  <si>
+    <t>宁六</t>
+  </si>
+  <si>
+    <t>2021014</t>
+  </si>
+  <si>
+    <t>17806060518</t>
+  </si>
+  <si>
+    <t>贺知章</t>
+  </si>
+  <si>
+    <t>2021015</t>
+  </si>
+  <si>
+    <t>18006060519</t>
+  </si>
+  <si>
+    <t>白居易</t>
+  </si>
+  <si>
+    <t>2021016</t>
+  </si>
+  <si>
+    <t>18006060520</t>
+  </si>
+  <si>
+    <t>李白</t>
+  </si>
+  <si>
+    <t>2021017</t>
+  </si>
+  <si>
+    <t>18006060521</t>
+  </si>
+  <si>
+    <t>杜甫</t>
+  </si>
+  <si>
+    <t>2021018</t>
+  </si>
+  <si>
+    <t>18006060522</t>
+  </si>
+  <si>
+    <t>欧阳修</t>
+  </si>
+  <si>
+    <t>2021019</t>
+  </si>
+  <si>
+    <t>18006060523</t>
+  </si>
+  <si>
+    <t>李清照</t>
+  </si>
+  <si>
+    <t>2021020</t>
+  </si>
+  <si>
+    <t>18006060524</t>
+  </si>
+  <si>
+    <t>王安石</t>
+  </si>
+  <si>
+    <t>2021021</t>
+  </si>
+  <si>
+    <t>18006060525</t>
+  </si>
+  <si>
+    <t>王维</t>
+  </si>
+  <si>
+    <t>2021022</t>
+  </si>
+  <si>
+    <t>18006060526</t>
+  </si>
+  <si>
+    <t>苏轼</t>
+  </si>
+  <si>
+    <t>2021023</t>
+  </si>
+  <si>
+    <t>18006060527</t>
+  </si>
+  <si>
+    <t>苏七</t>
+  </si>
+  <si>
+    <t>2021024</t>
+  </si>
+  <si>
+    <t>18006060528</t>
   </si>
 </sst>
 </file>
@@ -577,151 +808,151 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="2" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="0" applyFont="0" fillId="2" applyFill="1" borderId="1" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="3" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="4" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="5" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="6" applyFont="1" fillId="0" applyFill="0" borderId="2" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="7" applyFont="1" fillId="0" applyFill="0" borderId="2" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="8" applyFont="1" fillId="0" applyFill="0" borderId="3" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="8" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="13" applyFont="1" fillId="0" applyFill="0" borderId="7" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="14" applyFont="1" fillId="0" applyFill="0" borderId="8" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,370 +1271,1116 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="11.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="0">
+        <v>89</v>
+      </c>
+      <c r="J2" s="0">
+        <v>94</v>
+      </c>
+      <c r="K2" s="0">
+        <v>93</v>
+      </c>
+      <c r="L2" s="0">
+        <v>84</v>
+      </c>
+      <c r="M2" s="0">
+        <v>96</v>
+      </c>
+      <c r="N2" s="0">
+        <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="0">
+        <v>90</v>
+      </c>
+      <c r="J3" s="0">
+        <v>95</v>
+      </c>
+      <c r="K3" s="0">
+        <v>99</v>
+      </c>
+      <c r="L3" s="0">
+        <v>82</v>
+      </c>
+      <c r="M3" s="0">
+        <v>98</v>
+      </c>
+      <c r="N3" s="0">
+        <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="0">
+        <v>91</v>
+      </c>
+      <c r="J4" s="0">
+        <v>85</v>
+      </c>
+      <c r="K4" s="0">
+        <v>85</v>
+      </c>
+      <c r="L4" s="0">
+        <v>91</v>
+      </c>
+      <c r="M4" s="0">
+        <v>75</v>
+      </c>
+      <c r="N4" s="0">
+        <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="0">
+        <v>62</v>
+      </c>
+      <c r="J5" s="0">
+        <v>92</v>
+      </c>
+      <c r="K5" s="0">
+        <v>85</v>
+      </c>
+      <c r="L5" s="0">
+        <v>91</v>
+      </c>
+      <c r="M5" s="0">
+        <v>79</v>
+      </c>
+      <c r="N5" s="0">
+        <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="0">
+        <v>98</v>
+      </c>
+      <c r="J6" s="0">
+        <v>78</v>
+      </c>
+      <c r="K6" s="0">
+        <v>95</v>
+      </c>
+      <c r="L6" s="0">
+        <v>75</v>
+      </c>
+      <c r="M6" s="0">
+        <v>76</v>
+      </c>
+      <c r="N6" s="0">
+        <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="0">
+        <v>76</v>
+      </c>
+      <c r="J7" s="0">
+        <v>76</v>
+      </c>
+      <c r="K7" s="0">
+        <v>85</v>
+      </c>
+      <c r="L7" s="0">
+        <v>79</v>
+      </c>
+      <c r="M7" s="0">
+        <v>85</v>
+      </c>
+      <c r="N7" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="0">
+        <v>83</v>
+      </c>
+      <c r="J8" s="0">
+        <v>82</v>
+      </c>
+      <c r="K8" s="0">
+        <v>63</v>
+      </c>
+      <c r="L8" s="0">
+        <v>76</v>
+      </c>
+      <c r="M8" s="0">
+        <v>87</v>
+      </c>
+      <c r="N8" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="0">
+        <v>59</v>
+      </c>
+      <c r="J9" s="0">
+        <v>83</v>
+      </c>
+      <c r="K9" s="0">
+        <v>76</v>
+      </c>
+      <c r="L9" s="0">
+        <v>78</v>
+      </c>
+      <c r="M9" s="0">
+        <v>89</v>
+      </c>
+      <c r="N9" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="0">
+        <v>77</v>
+      </c>
+      <c r="J10" s="0">
+        <v>90</v>
+      </c>
+      <c r="K10" s="0">
+        <v>79</v>
+      </c>
+      <c r="L10" s="0">
+        <v>67</v>
+      </c>
+      <c r="M10" s="0">
+        <v>72</v>
+      </c>
+      <c r="N10" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="0">
+        <v>67</v>
+      </c>
+      <c r="J11" s="0">
+        <v>69</v>
+      </c>
+      <c r="K11" s="0">
+        <v>97</v>
+      </c>
+      <c r="L11" s="0">
+        <v>69</v>
+      </c>
+      <c r="M11" s="0">
+        <v>96</v>
+      </c>
+      <c r="N11" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="0">
+        <v>84</v>
+      </c>
+      <c r="J12" s="0">
+        <v>60</v>
+      </c>
+      <c r="K12" s="0">
+        <v>78</v>
+      </c>
+      <c r="L12" s="0">
+        <v>62</v>
+      </c>
+      <c r="M12" s="0">
+        <v>86</v>
+      </c>
+      <c r="N12" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="0">
+        <v>77</v>
+      </c>
+      <c r="J13" s="0">
+        <v>78</v>
+      </c>
+      <c r="K13" s="0">
+        <v>77</v>
+      </c>
+      <c r="L13" s="0">
+        <v>63</v>
+      </c>
+      <c r="M13" s="0">
+        <v>75</v>
+      </c>
+      <c r="N13" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="0">
+        <v>78</v>
+      </c>
+      <c r="J14" s="0">
+        <v>75</v>
+      </c>
+      <c r="K14" s="0">
+        <v>71</v>
+      </c>
+      <c r="L14" s="0">
+        <v>79</v>
+      </c>
+      <c r="M14" s="0">
+        <v>96</v>
+      </c>
+      <c r="N14" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="E15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="0">
+        <v>72</v>
+      </c>
+      <c r="J15" s="0">
+        <v>88</v>
+      </c>
+      <c r="K15" s="0">
+        <v>75</v>
+      </c>
+      <c r="L15" s="0">
+        <v>58</v>
+      </c>
+      <c r="M15" s="0">
+        <v>77</v>
+      </c>
+      <c r="N15" s="0">
+        <v>73</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D16" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="E16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="0">
+        <v>75</v>
+      </c>
+      <c r="J16" s="0">
+        <v>86</v>
+      </c>
+      <c r="K16" s="0">
+        <v>64</v>
+      </c>
+      <c r="L16" s="0">
+        <v>69</v>
+      </c>
+      <c r="M16" s="0">
+        <v>52</v>
+      </c>
+      <c r="N16" s="0">
+        <v>60</v>
+      </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D17" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="E17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="0">
+        <v>64</v>
+      </c>
+      <c r="J17" s="0">
+        <v>84</v>
+      </c>
+      <c r="K17" s="0">
+        <v>87</v>
+      </c>
+      <c r="L17" s="0">
+        <v>88</v>
+      </c>
+      <c r="M17" s="0">
+        <v>89</v>
+      </c>
+      <c r="N17" s="0">
+        <v>90</v>
+      </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D18" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="E18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="0">
+        <v>88</v>
+      </c>
+      <c r="J18" s="0">
+        <v>95</v>
+      </c>
+      <c r="K18" s="0">
+        <v>89</v>
+      </c>
+      <c r="L18" s="0">
+        <v>87</v>
+      </c>
+      <c r="M18" s="0">
+        <v>81</v>
+      </c>
+      <c r="N18" s="0">
+        <v>91</v>
+      </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D19" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="E19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="0">
+        <v>65</v>
+      </c>
+      <c r="J19" s="0">
+        <v>94</v>
+      </c>
+      <c r="K19" s="0">
+        <v>82</v>
+      </c>
+      <c r="L19" s="0">
+        <v>86</v>
+      </c>
+      <c r="M19" s="0">
+        <v>85</v>
+      </c>
+      <c r="N19" s="0">
+        <v>96</v>
+      </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D20" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="E20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="0">
+        <v>94</v>
+      </c>
+      <c r="J20" s="0">
+        <v>82</v>
+      </c>
+      <c r="K20" s="0">
+        <v>85</v>
+      </c>
+      <c r="L20" s="0">
+        <v>85</v>
+      </c>
+      <c r="M20" s="0">
+        <v>89</v>
+      </c>
+      <c r="N20" s="0">
+        <v>89</v>
+      </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="0">
+        <v>66</v>
+      </c>
+      <c r="J21" s="0">
+        <v>92</v>
+      </c>
+      <c r="K21" s="0">
+        <v>76</v>
+      </c>
+      <c r="L21" s="0">
+        <v>89</v>
+      </c>
+      <c r="M21" s="0">
+        <v>60</v>
+      </c>
+      <c r="N21" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D22" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="E22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="0">
+        <v>63</v>
+      </c>
+      <c r="J22" s="0">
+        <v>93</v>
+      </c>
+      <c r="K22" s="0">
+        <v>84</v>
+      </c>
+      <c r="L22" s="0">
+        <v>87</v>
+      </c>
+      <c r="M22" s="0">
+        <v>73</v>
+      </c>
+      <c r="N22" s="0">
+        <v>77</v>
+      </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D23" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="E23" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="0">
+        <v>61</v>
+      </c>
+      <c r="J23" s="0">
+        <v>86</v>
+      </c>
+      <c r="K23" s="0">
+        <v>61</v>
+      </c>
+      <c r="L23" s="0">
+        <v>71</v>
+      </c>
+      <c r="M23" s="0">
+        <v>69</v>
+      </c>
+      <c r="N23" s="0">
+        <v>75</v>
+      </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D24" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="E24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="0">
+        <v>60</v>
+      </c>
+      <c r="J24" s="0">
+        <v>52</v>
+      </c>
+      <c r="K24" s="0">
+        <v>92</v>
+      </c>
+      <c r="L24" s="0">
+        <v>72</v>
+      </c>
+      <c r="M24" s="0">
+        <v>95</v>
+      </c>
+      <c r="N24" s="0">
+        <v>95</v>
+      </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D25" s="0" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+      <c r="E25" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="F25" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="G25" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
+      <c r="H25" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="0">
+        <v>60</v>
+      </c>
+      <c r="J25" s="0">
+        <v>69</v>
+      </c>
+      <c r="K25" s="0">
+        <v>70</v>
+      </c>
+      <c r="L25" s="0">
+        <v>71</v>
+      </c>
+      <c r="M25" s="0">
+        <v>83</v>
+      </c>
+      <c r="N25" s="0">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1416,7 +2393,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1433,7 +2409,6 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/XUANXUAN/EXPPP2/EXPPP2/students.xlsx
+++ b/XUANXUAN/EXPPP2/EXPPP2/students.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>姓名</t>
   </si>
@@ -73,43 +73,49 @@
     <t>算法基础</t>
   </si>
   <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>2021001</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>汉族</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>计科1班</t>
-  </si>
-  <si>
-    <t>15206060505</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>2021002</t>
-  </si>
-  <si>
-    <t>苗族</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>15666060506</t>
+    <t>吴七</t>
+  </si>
+  <si>
+    <t>2021005</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>贺知章</t>
+  </si>
+  <si>
+    <t>2021015</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
   <si>
     <t>王五</t>
@@ -118,13 +124,13 @@
     <t>2021003</t>
   </si>
   <si>
-    <t>回族</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>15206550507</t>
+    <t>91</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>80</t>
   </si>
   <si>
     <t>周六</t>
@@ -133,22 +139,25 @@
     <t>2021004</t>
   </si>
   <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>计科2班</t>
-  </si>
-  <si>
-    <t>16706060508</t>
-  </si>
-  <si>
-    <t>吴七</t>
-  </si>
-  <si>
-    <t>2021005</t>
-  </si>
-  <si>
-    <t>18906060509</t>
+    <t>62</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
   <si>
     <t>郑八</t>
@@ -157,19 +166,22 @@
     <t>2021006</t>
   </si>
   <si>
-    <t>15255200510</t>
-  </si>
-  <si>
     <t>孙九</t>
   </si>
   <si>
     <t>2021007</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>15206090611</t>
+    <t>83</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>73</t>
   </si>
   <si>
     <t>司徒三</t>
@@ -178,10 +190,10 @@
     <t>2021008</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>15206060512</t>
+    <t>59</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
   <si>
     <t>公孙九</t>
@@ -190,10 +202,13 @@
     <t>2021009</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>18006060513</t>
+    <t>77</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>72</t>
   </si>
   <si>
     <t>陈四</t>
@@ -202,7 +217,10 @@
     <t>2021010</t>
   </si>
   <si>
-    <t>18006060514</t>
+    <t>69</t>
+  </si>
+  <si>
+    <t>97</t>
   </si>
   <si>
     <t>阿塔木</t>
@@ -211,10 +229,10 @@
     <t>2021011</t>
   </si>
   <si>
-    <t>满族</t>
-  </si>
-  <si>
-    <t>18006060515</t>
+    <t>60</t>
+  </si>
+  <si>
+    <t>86</t>
   </si>
   <si>
     <t>阿鲁卡阿鲁奇</t>
@@ -223,25 +241,13 @@
     <t>2021012</t>
   </si>
   <si>
-    <t>藏族</t>
-  </si>
-  <si>
-    <t>计科3班</t>
-  </si>
-  <si>
-    <t>18006060516</t>
-  </si>
-  <si>
     <t>田八</t>
   </si>
   <si>
     <t>2021013</t>
   </si>
   <si>
-    <t>白族</t>
-  </si>
-  <si>
-    <t>18006060517</t>
+    <t>71</t>
   </si>
   <si>
     <t>宁六</t>
@@ -250,16 +256,16 @@
     <t>2021014</t>
   </si>
   <si>
-    <t>17806060518</t>
-  </si>
-  <si>
-    <t>贺知章</t>
-  </si>
-  <si>
-    <t>2021015</t>
-  </si>
-  <si>
-    <t>18006060519</t>
+    <t>88</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>52</t>
   </si>
   <si>
     <t>白居易</t>
@@ -268,25 +274,19 @@
     <t>2021016</t>
   </si>
   <si>
-    <t>18006060520</t>
-  </si>
-  <si>
     <t>李白</t>
   </si>
   <si>
     <t>2021017</t>
   </si>
   <si>
-    <t>18006060521</t>
-  </si>
-  <si>
     <t>杜甫</t>
   </si>
   <si>
     <t>2021018</t>
   </si>
   <si>
-    <t>18006060522</t>
+    <t>65</t>
   </si>
   <si>
     <t>欧阳修</t>
@@ -295,16 +295,13 @@
     <t>2021019</t>
   </si>
   <si>
-    <t>18006060523</t>
-  </si>
-  <si>
     <t>李清照</t>
   </si>
   <si>
     <t>2021020</t>
   </si>
   <si>
-    <t>18006060524</t>
+    <t>66</t>
   </si>
   <si>
     <t>王安石</t>
@@ -313,7 +310,7 @@
     <t>2021021</t>
   </si>
   <si>
-    <t>18006060525</t>
+    <t>93</t>
   </si>
   <si>
     <t>王维</t>
@@ -322,25 +319,16 @@
     <t>2021022</t>
   </si>
   <si>
-    <t>18006060526</t>
-  </si>
-  <si>
     <t>苏轼</t>
   </si>
   <si>
     <t>2021023</t>
   </si>
   <si>
-    <t>18006060527</t>
-  </si>
-  <si>
     <t>苏七</t>
   </si>
   <si>
     <t>2021024</t>
-  </si>
-  <si>
-    <t>18006060528</t>
   </si>
 </sst>
 </file>
@@ -1350,10 +1338,10 @@
         <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" s="0">
-        <v>89</v>
       </c>
       <c r="J2" s="0">
         <v>94</v>
@@ -1379,25 +1367,25 @@
         <v>23</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="0">
-        <v>90</v>
+      <c r="I3" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="J3" s="0">
         <v>95</v>
@@ -1417,31 +1405,31 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="I4" s="0">
-        <v>91</v>
       </c>
       <c r="J4" s="0">
         <v>85</v>
@@ -1461,31 +1449,31 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="I5" s="0">
-        <v>62</v>
       </c>
       <c r="J5" s="0">
         <v>92</v>
@@ -1505,31 +1493,31 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="0">
-        <v>98</v>
+        <v>42</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="J6" s="0">
         <v>78</v>
@@ -1549,31 +1537,31 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="0">
-        <v>76</v>
+        <v>25</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="J7" s="0">
         <v>76</v>
@@ -1593,31 +1581,31 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="0">
-        <v>83</v>
+        <v>50</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="J8" s="0">
         <v>82</v>
@@ -1637,31 +1625,31 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="0">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J9" s="0">
         <v>83</v>
@@ -1681,31 +1669,31 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="0">
-        <v>77</v>
+        <v>31</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="J10" s="0">
         <v>90</v>
@@ -1725,31 +1713,31 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="0">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="J11" s="0">
         <v>69</v>
@@ -1769,31 +1757,31 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="0">
-        <v>84</v>
       </c>
       <c r="J12" s="0">
         <v>60</v>
@@ -1813,31 +1801,31 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="0">
-        <v>77</v>
+        <v>27</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="J13" s="0">
         <v>78</v>
@@ -1857,31 +1845,31 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="0">
-        <v>78</v>
+        <v>32</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="J14" s="0">
         <v>75</v>
@@ -1901,31 +1889,31 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="0">
-        <v>72</v>
+        <v>50</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="J15" s="0">
         <v>88</v>
@@ -1945,31 +1933,31 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="0">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="J16" s="0">
         <v>86</v>
@@ -1989,31 +1977,31 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D17" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="0">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>77</v>
       </c>
       <c r="J17" s="0">
         <v>84</v>
@@ -2033,31 +2021,31 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="0">
-        <v>88</v>
+        <v>31</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="J18" s="0">
         <v>95</v>
@@ -2083,25 +2071,25 @@
         <v>84</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="G19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="I19" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="I19" s="0">
-        <v>65</v>
       </c>
       <c r="J19" s="0">
         <v>94</v>
@@ -2127,25 +2115,25 @@
         <v>87</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="0">
-        <v>94</v>
       </c>
       <c r="J20" s="0">
         <v>82</v>
@@ -2165,31 +2153,31 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="D21" s="0" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="0">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>90</v>
       </c>
       <c r="J21" s="0">
         <v>92</v>
@@ -2209,31 +2197,31 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="E22" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="0">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="J22" s="0">
         <v>93</v>
@@ -2253,31 +2241,31 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="C23" s="0" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="0">
-        <v>61</v>
+        <v>24</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="J23" s="0">
         <v>86</v>
@@ -2297,31 +2285,31 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="0">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="J24" s="0">
         <v>52</v>
@@ -2341,31 +2329,31 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="0">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="J25" s="0">
         <v>69</v>

--- a/XUANXUAN/EXPPP2/EXPPP2/students.xlsx
+++ b/XUANXUAN/EXPPP2/EXPPP2/students.xlsx
@@ -73,168 +73,177 @@
     <t>算法基础</t>
   </si>
   <si>
+    <t>吴七三</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>贺知章</t>
+  </si>
+  <si>
+    <t>2021015</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>王五</t>
+  </si>
+  <si>
+    <t>2021003</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>周六</t>
+  </si>
+  <si>
+    <t>2021004</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
     <t>吴七</t>
   </si>
   <si>
     <t>2021005</t>
   </si>
   <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>78</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>郑八</t>
+  </si>
+  <si>
+    <t>2021006</t>
+  </si>
+  <si>
+    <t>孙九</t>
+  </si>
+  <si>
+    <t>2021007</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>司徒三</t>
+  </si>
+  <si>
+    <t>2021008</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>公孙九</t>
+  </si>
+  <si>
+    <t>2021009</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>陈四</t>
+  </si>
+  <si>
+    <t>2021010</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>阿塔木</t>
+  </si>
+  <si>
+    <t>2021011</t>
   </si>
   <si>
     <t>84</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>贺知章</t>
-  </si>
-  <si>
-    <t>2021015</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>王五</t>
-  </si>
-  <si>
-    <t>2021003</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>周六</t>
-  </si>
-  <si>
-    <t>2021004</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>郑八</t>
-  </si>
-  <si>
-    <t>2021006</t>
-  </si>
-  <si>
-    <t>孙九</t>
-  </si>
-  <si>
-    <t>2021007</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>司徒三</t>
-  </si>
-  <si>
-    <t>2021008</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>公孙九</t>
-  </si>
-  <si>
-    <t>2021009</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>陈四</t>
-  </si>
-  <si>
-    <t>2021010</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>阿塔木</t>
-  </si>
-  <si>
-    <t>2021011</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
     <t>阿鲁卡阿鲁奇</t>
   </si>
   <si>
@@ -262,12 +271,6 @@
     <t>58</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
     <t>白居易</t>
   </si>
   <si>
@@ -308,9 +311,6 @@
   </si>
   <si>
     <t>2021021</t>
-  </si>
-  <si>
-    <t>93</t>
   </si>
   <si>
     <t>王维</t>
@@ -1262,11 +1262,12 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
+    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
     <col min="4" max="4" width="11.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
@@ -1319,645 +1320,645 @@
       <c r="A2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="0">
+        <v>20210205</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0">
+        <v>10</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="0">
-        <v>94</v>
-      </c>
-      <c r="K2" s="0">
-        <v>93</v>
-      </c>
-      <c r="L2" s="0">
-        <v>84</v>
-      </c>
-      <c r="M2" s="0">
-        <v>96</v>
-      </c>
-      <c r="N2" s="0">
-        <v>98</v>
+      <c r="L2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="0">
-        <v>95</v>
-      </c>
-      <c r="K3" s="0">
-        <v>99</v>
-      </c>
-      <c r="L3" s="0">
-        <v>82</v>
-      </c>
-      <c r="M3" s="0">
-        <v>98</v>
-      </c>
-      <c r="N3" s="0">
-        <v>95</v>
+      <c r="M3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="0">
-        <v>85</v>
-      </c>
-      <c r="K4" s="0">
-        <v>85</v>
-      </c>
-      <c r="L4" s="0">
-        <v>91</v>
-      </c>
-      <c r="M4" s="0">
-        <v>75</v>
-      </c>
-      <c r="N4" s="0">
-        <v>80</v>
+        <v>32</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="0">
-        <v>92</v>
-      </c>
-      <c r="K5" s="0">
-        <v>85</v>
-      </c>
-      <c r="L5" s="0">
-        <v>91</v>
-      </c>
-      <c r="M5" s="0">
-        <v>79</v>
-      </c>
-      <c r="N5" s="0">
-        <v>81</v>
+      <c r="K5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="0">
-        <v>78</v>
-      </c>
-      <c r="K6" s="0">
-        <v>95</v>
-      </c>
-      <c r="L6" s="0">
-        <v>75</v>
-      </c>
-      <c r="M6" s="0">
-        <v>76</v>
-      </c>
-      <c r="N6" s="0">
-        <v>70</v>
+        <v>25</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="0">
-        <v>76</v>
-      </c>
-      <c r="K7" s="0">
-        <v>85</v>
-      </c>
-      <c r="L7" s="0">
-        <v>79</v>
-      </c>
-      <c r="M7" s="0">
-        <v>85</v>
-      </c>
-      <c r="N7" s="0">
-        <v>95</v>
+      <c r="L7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="0">
-        <v>82</v>
-      </c>
-      <c r="K8" s="0">
-        <v>63</v>
-      </c>
-      <c r="L8" s="0">
-        <v>76</v>
-      </c>
-      <c r="M8" s="0">
-        <v>87</v>
-      </c>
-      <c r="N8" s="0">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="0">
-        <v>83</v>
-      </c>
-      <c r="K9" s="0">
-        <v>76</v>
-      </c>
-      <c r="L9" s="0">
-        <v>78</v>
-      </c>
-      <c r="M9" s="0">
-        <v>89</v>
-      </c>
-      <c r="N9" s="0">
-        <v>61</v>
+        <v>43</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="0">
-        <v>90</v>
-      </c>
-      <c r="K10" s="0">
-        <v>79</v>
-      </c>
-      <c r="L10" s="0">
-        <v>67</v>
-      </c>
-      <c r="M10" s="0">
-        <v>72</v>
-      </c>
-      <c r="N10" s="0">
-        <v>91</v>
+        <v>63</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="0">
-        <v>69</v>
-      </c>
-      <c r="K11" s="0">
-        <v>97</v>
-      </c>
-      <c r="L11" s="0">
-        <v>69</v>
-      </c>
-      <c r="M11" s="0">
-        <v>96</v>
-      </c>
-      <c r="N11" s="0">
-        <v>94</v>
+        <v>28</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="0">
-        <v>60</v>
-      </c>
-      <c r="K12" s="0">
-        <v>78</v>
-      </c>
-      <c r="L12" s="0">
-        <v>62</v>
-      </c>
-      <c r="M12" s="0">
-        <v>86</v>
-      </c>
-      <c r="N12" s="0">
-        <v>80</v>
+        <v>37</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="0">
-        <v>78</v>
-      </c>
-      <c r="K13" s="0">
-        <v>77</v>
-      </c>
-      <c r="L13" s="0">
-        <v>63</v>
-      </c>
-      <c r="M13" s="0">
-        <v>75</v>
-      </c>
-      <c r="N13" s="0">
-        <v>82</v>
+        <v>53</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="0">
-        <v>75</v>
-      </c>
-      <c r="K14" s="0">
-        <v>71</v>
-      </c>
-      <c r="L14" s="0">
-        <v>79</v>
-      </c>
-      <c r="M14" s="0">
-        <v>96</v>
-      </c>
-      <c r="N14" s="0">
-        <v>85</v>
+        <v>39</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="0">
-        <v>88</v>
-      </c>
-      <c r="K15" s="0">
-        <v>75</v>
-      </c>
-      <c r="L15" s="0">
-        <v>58</v>
-      </c>
-      <c r="M15" s="0">
-        <v>77</v>
-      </c>
-      <c r="N15" s="0">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="H16" s="0" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J16" s="0">
         <v>86</v>
@@ -1977,266 +1978,266 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="0">
-        <v>84</v>
-      </c>
-      <c r="K17" s="0">
-        <v>87</v>
-      </c>
-      <c r="L17" s="0">
-        <v>88</v>
-      </c>
-      <c r="M17" s="0">
-        <v>89</v>
-      </c>
-      <c r="N17" s="0">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="0">
-        <v>95</v>
-      </c>
-      <c r="K18" s="0">
-        <v>89</v>
-      </c>
-      <c r="L18" s="0">
-        <v>87</v>
-      </c>
-      <c r="M18" s="0">
-        <v>81</v>
-      </c>
-      <c r="N18" s="0">
-        <v>91</v>
+        <v>54</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="0">
-        <v>94</v>
-      </c>
-      <c r="K19" s="0">
-        <v>82</v>
-      </c>
-      <c r="L19" s="0">
-        <v>86</v>
-      </c>
-      <c r="M19" s="0">
-        <v>85</v>
-      </c>
-      <c r="N19" s="0">
-        <v>96</v>
+        <v>26</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="0">
-        <v>82</v>
-      </c>
-      <c r="K20" s="0">
-        <v>85</v>
-      </c>
-      <c r="L20" s="0">
-        <v>85</v>
-      </c>
-      <c r="M20" s="0">
-        <v>89</v>
-      </c>
-      <c r="N20" s="0">
-        <v>89</v>
+        <v>33</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="0">
-        <v>92</v>
-      </c>
-      <c r="K21" s="0">
-        <v>76</v>
-      </c>
-      <c r="L21" s="0">
-        <v>89</v>
-      </c>
-      <c r="M21" s="0">
-        <v>60</v>
-      </c>
-      <c r="N21" s="0">
-        <v>71</v>
+        <v>15</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" s="0">
-        <v>93</v>
-      </c>
-      <c r="K22" s="0">
-        <v>84</v>
-      </c>
-      <c r="L22" s="0">
-        <v>87</v>
-      </c>
-      <c r="M22" s="0">
-        <v>73</v>
-      </c>
-      <c r="N22" s="0">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23">
@@ -2247,40 +2248,40 @@
         <v>95</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="0">
-        <v>86</v>
-      </c>
-      <c r="K23" s="0">
-        <v>61</v>
-      </c>
-      <c r="L23" s="0">
-        <v>71</v>
-      </c>
-      <c r="M23" s="0">
-        <v>69</v>
-      </c>
-      <c r="N23" s="0">
         <v>75</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -2291,40 +2292,40 @@
         <v>97</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="0">
-        <v>52</v>
-      </c>
-      <c r="K24" s="0">
-        <v>92</v>
-      </c>
-      <c r="L24" s="0">
-        <v>72</v>
-      </c>
-      <c r="M24" s="0">
-        <v>95</v>
-      </c>
-      <c r="N24" s="0">
-        <v>95</v>
+        <v>64</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -2335,40 +2336,40 @@
         <v>99</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" s="0">
-        <v>69</v>
-      </c>
-      <c r="K25" s="0">
-        <v>70</v>
-      </c>
-      <c r="L25" s="0">
-        <v>71</v>
-      </c>
-      <c r="M25" s="0">
-        <v>83</v>
-      </c>
-      <c r="N25" s="0">
         <v>75</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
